--- a/202316034203徐有才Py3.13.7设计源文件/DATA/学生成绩表.xlsx
+++ b/202316034203徐有才Py3.13.7设计源文件/DATA/学生成绩表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,11 +478,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>楚天库</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>潇湘</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
